--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220419_110232.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220419_110232.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="276">
   <si>
     <t>사이트</t>
   </si>
@@ -809,6 +809,9 @@
   </si>
   <si>
     <t>WM</t>
+  </si>
+  <si>
+    <t>마크툽컴퍼니</t>
   </si>
   <si>
     <t>예스아이엠엔터테인먼트</t>
@@ -2911,6 +2914,12 @@
       <c r="F66" t="s">
         <v>211</v>
       </c>
+      <c r="G66" t="s">
+        <v>265</v>
+      </c>
+      <c r="H66" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
@@ -2932,7 +2941,7 @@
         <v>212</v>
       </c>
       <c r="G67" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H67" t="s">
         <v>246</v>
@@ -3088,7 +3097,7 @@
         <v>81</v>
       </c>
       <c r="G73" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H73" t="s">
         <v>246</v>
@@ -3139,6 +3148,12 @@
       <c r="F75" t="s">
         <v>83</v>
       </c>
+      <c r="G75" t="s">
+        <v>248</v>
+      </c>
+      <c r="H75" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
@@ -3185,6 +3200,12 @@
       <c r="F77" t="s">
         <v>218</v>
       </c>
+      <c r="G77" t="s">
+        <v>265</v>
+      </c>
+      <c r="H77" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
@@ -3206,7 +3227,7 @@
         <v>219</v>
       </c>
       <c r="G78" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H78" t="s">
         <v>246</v>
@@ -3336,7 +3357,7 @@
         <v>91</v>
       </c>
       <c r="G83" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H83" t="s">
         <v>246</v>
@@ -3440,7 +3461,7 @@
         <v>226</v>
       </c>
       <c r="G87" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H87" t="s">
         <v>246</v>
@@ -3518,7 +3539,7 @@
         <v>98</v>
       </c>
       <c r="G90" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H90" t="s">
         <v>246</v>
@@ -3622,7 +3643,7 @@
         <v>230</v>
       </c>
       <c r="G94" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H94" t="s">
         <v>246</v>
@@ -3700,7 +3721,7 @@
         <v>233</v>
       </c>
       <c r="G97" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H97" t="s">
         <v>246</v>
@@ -3752,7 +3773,7 @@
         <v>235</v>
       </c>
       <c r="G99" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H99" t="s">
         <v>246</v>
@@ -3778,7 +3799,7 @@
         <v>108</v>
       </c>
       <c r="G100" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H100" t="s">
         <v>246</v>
@@ -3804,7 +3825,7 @@
         <v>109</v>
       </c>
       <c r="G101" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H101" t="s">
         <v>246</v>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220419_110232.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220419_110232.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>genie</t>
+    <t>Genie</t>
   </si>
   <si>
     <t>2022-04-19</t>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220419_110232.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220419_110232.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="275">
   <si>
     <t>사이트</t>
   </si>
@@ -782,9 +782,6 @@
   </si>
   <si>
     <t>HIGH UP</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>YUE HUA</t>
@@ -2265,7 +2262,7 @@
         <v>49</v>
       </c>
       <c r="G41" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="H41" t="s">
         <v>246</v>
@@ -2291,7 +2288,7 @@
         <v>198</v>
       </c>
       <c r="G42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H42" t="s">
         <v>246</v>
@@ -2317,7 +2314,7 @@
         <v>199</v>
       </c>
       <c r="G43" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="H43" t="s">
         <v>246</v>
@@ -2343,7 +2340,7 @@
         <v>52</v>
       </c>
       <c r="G44" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H44" t="s">
         <v>246</v>
@@ -2525,7 +2522,7 @@
         <v>59</v>
       </c>
       <c r="G51" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H51" t="s">
         <v>246</v>
@@ -2551,7 +2548,7 @@
         <v>203</v>
       </c>
       <c r="G52" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H52" t="s">
         <v>246</v>
@@ -2577,7 +2574,7 @@
         <v>204</v>
       </c>
       <c r="G53" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="H53" t="s">
         <v>246</v>
@@ -2603,10 +2600,10 @@
         <v>205</v>
       </c>
       <c r="G54" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H54" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2655,7 +2652,7 @@
         <v>64</v>
       </c>
       <c r="G56" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H56" t="s">
         <v>246</v>
@@ -2707,10 +2704,10 @@
         <v>66</v>
       </c>
       <c r="G58" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H58" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2759,10 +2756,10 @@
         <v>68</v>
       </c>
       <c r="G60" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H60" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2785,7 +2782,7 @@
         <v>69</v>
       </c>
       <c r="G61" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H61" t="s">
         <v>246</v>
@@ -2915,7 +2912,7 @@
         <v>211</v>
       </c>
       <c r="G66" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H66" t="s">
         <v>246</v>
@@ -2941,7 +2938,7 @@
         <v>212</v>
       </c>
       <c r="G67" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H67" t="s">
         <v>246</v>
@@ -3097,7 +3094,7 @@
         <v>81</v>
       </c>
       <c r="G73" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H73" t="s">
         <v>246</v>
@@ -3123,7 +3120,7 @@
         <v>82</v>
       </c>
       <c r="G74" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H74" t="s">
         <v>246</v>
@@ -3175,7 +3172,7 @@
         <v>194</v>
       </c>
       <c r="G76" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="H76" t="s">
         <v>246</v>
@@ -3201,7 +3198,7 @@
         <v>218</v>
       </c>
       <c r="G77" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H77" t="s">
         <v>246</v>
@@ -3227,7 +3224,7 @@
         <v>219</v>
       </c>
       <c r="G78" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H78" t="s">
         <v>246</v>
@@ -3253,10 +3250,10 @@
         <v>220</v>
       </c>
       <c r="G79" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H79" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3357,7 +3354,7 @@
         <v>91</v>
       </c>
       <c r="G83" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H83" t="s">
         <v>246</v>
@@ -3461,7 +3458,7 @@
         <v>226</v>
       </c>
       <c r="G87" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H87" t="s">
         <v>246</v>
@@ -3539,7 +3536,7 @@
         <v>98</v>
       </c>
       <c r="G90" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H90" t="s">
         <v>246</v>
@@ -3617,7 +3614,7 @@
         <v>101</v>
       </c>
       <c r="G93" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H93" t="s">
         <v>246</v>
@@ -3643,7 +3640,7 @@
         <v>230</v>
       </c>
       <c r="G94" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H94" t="s">
         <v>246</v>
@@ -3669,7 +3666,7 @@
         <v>231</v>
       </c>
       <c r="G95" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H95" t="s">
         <v>246</v>
@@ -3721,7 +3718,7 @@
         <v>233</v>
       </c>
       <c r="G97" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H97" t="s">
         <v>246</v>
@@ -3773,7 +3770,7 @@
         <v>235</v>
       </c>
       <c r="G99" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H99" t="s">
         <v>246</v>
@@ -3799,7 +3796,7 @@
         <v>108</v>
       </c>
       <c r="G100" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H100" t="s">
         <v>246</v>
@@ -3825,7 +3822,7 @@
         <v>109</v>
       </c>
       <c r="G101" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H101" t="s">
         <v>246</v>
